--- a/source/2025.07.07 LH 25년2차_신혼·신생아매입임대Ⅱ(전세형)_서울.xlsx
+++ b/source/2025.07.07 LH 25년2차_신혼·신생아매입임대Ⅱ(전세형)_서울.xlsx
@@ -1296,9 +1296,9 @@
   </sheetPr>
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1"/>
